--- a/sputnik/personal/cel/cel115.xlsx
+++ b/sputnik/personal/cel/cel115.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -528,7 +528,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -652,9 +652,15 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="13">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1000</v>
+      </c>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/cel/cel115.xlsx
+++ b/sputnik/personal/cel/cel115.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -528,7 +528,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+      <selection activeCell="C11" sqref="C11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -658,16 +658,22 @@
       <c r="B11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="15">
         <v>1000</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="13">
+        <v>44158</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel115.xlsx
+++ b/sputnik/personal/cel/cel115.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -525,10 +531,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D12"/>
+      <selection activeCell="A13" sqref="A13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -674,6 +680,66 @@
       <c r="D12" s="15">
         <v>1000</v>
       </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>44317</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11">
+        <v>170</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
